--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.3_TC1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="324" yWindow="708" windowWidth="21600" windowHeight="11328" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4845" yWindow="-14220" windowWidth="21600" windowHeight="11325" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="QuantitativeMetrics" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,7 +11,7 @@
     <sheet name="_Values" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -452,7 +452,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -515,10 +515,14 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="n"/>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>Wrong page object model name</t>
+        </is>
+      </c>
       <c r="D5" s="7" t="inlineStr">
         <is>
           <t>If the code compiles successfully</t>
@@ -531,11 +535,7 @@
           <t>Runtime without error</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
+      <c r="B6" s="3" t="n"/>
       <c r="C6" s="3" t="n"/>
       <c r="D6" s="7" t="inlineStr">
         <is>
@@ -549,16 +549,8 @@
           <t>Assertion validity</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Test not pass as the same as baseline</t>
-        </is>
-      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="7" t="n"/>
       <c r="D7" s="7" t="inlineStr">
         <is>
           <t>If the test pass or fails compared to baseline tests (some result or not)</t>
@@ -620,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3074232492771953</v>
+        <v>0.3019884666684997</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30742324927719533, 'ngram_match_score': 0.0922259976907841, 'weighted_ngram_match_score': 0.10259829515626676, 'syntax_match_score': 0.6435643564356436, 'dataflow_match_score': 0.391304347826087}</t>
+          <t>{'codebleu': 0.30198846666849966, 'ngram_match_score': 0.0922259976907841, 'weighted_ngram_match_score': 0.10259829515626676, 'syntax_match_score': 0.6435643564356436, 'dataflow_match_score': 0.3695652173913043}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.3_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/3/UC3.3_TC1.xlsx
@@ -612,11 +612,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3019884666684997</v>
+        <v>0.3291623797119779</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30198846666849966, 'ngram_match_score': 0.0922259976907841, 'weighted_ngram_match_score': 0.10259829515626676, 'syntax_match_score': 0.6435643564356436, 'dataflow_match_score': 0.3695652173913043}</t>
+          <t>{'codebleu': 0.3291623797119779, 'ngram_match_score': 0.0922259976907841, 'weighted_ngram_match_score': 0.10259829515626676, 'syntax_match_score': 0.6435643564356436, 'dataflow_match_score': 0.4782608695652174}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
